--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -244,7 +244,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>CompetenceMetier.competenceMetier</t>
+    <t>CompetenceMetier.typeSavoirFaire</t>
   </si>
   <si>
     <t>1</t>
@@ -254,13 +254,47 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+  </si>
+  <si>
+    <t>SavoirFaire.typeSavoirFaire</t>
+  </si>
+  <si>
+    <t>CompetenceMetier.dateReconnaissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateReconnaissance</t>
+  </si>
+  <si>
+    <t>CompetenceMetier.dateAbandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>CompetenceMetier.competenceMetier</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Compétence métier acquise par le professionnel</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/EnsembleSavoirFaire-CISIS-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceMetier-vs</t>
   </si>
 </sst>
 </file>
@@ -563,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -572,8 +606,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.0703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -597,7 +631,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.5703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -902,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>71</v>
@@ -914,6 +948,304 @@
         <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> La compétence métier désigne un type de savoir-faire opérationnel, transversal ou spécifique, acquis et exercé à titre non exclusif dans le cadre d’une activité professionnelle reconnue. Elle reflète une expertise fonctionnelle ou technique mobilisée dans l’exercice quotidien du professionnel de santé.Contrairement aux spécialités ordinales ou compétences de médecines, la compétence métier n’est pas nécessairement encadrée par un diplôme ou une qualification ordinale, mais elle peut être attestée par l’expérience, des formations spécifiques, ou une reconnaissance institutionnelle (ex. : missions ANS, ARS, établissements de santé, etc.).Dans le cadre du modèle, la classe CompétenceMetier est représentée comme une spécialisation de la classe SavoirFaire, i-e un TypeDeSavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe. Elle se distingue des autres types de savoir-faire par son ancrage dans les pratiques professionnelles et organisationnelles, plutôt que dans une logique de qualification médicale ou réglementaire.</t>
+    <t>La compétence métier désigne un type de savoir-faire opérationnel, transversal ou spécifique, acquis et exercé à titre non exclusif dans le cadre d’une activité professionnelle reconnue. Elle reflète une expertise fonctionnelle ou technique mobilisée dans l’exercice quotidien du professionnel de santé.Contrairement aux spécialités ordinales ou compétences de médecines, la compétence métier n’est pas nécessairement encadrée par un diplôme ou une qualification ordinale, mais elle peut être attestée par l’expérience, des formations spécifiques, ou une reconnaissance institutionnelle (ex. : missions ANS, ARS, établissements de santé, etc.).Dans le cadre du modèle, la classe CompétenceMetier est représentée comme une spécialisation de la classe SavoirFaire, i-e un TypeDeSavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe. Elle se distingue des autres types de savoir-faire par son ancrage dans les pratiques professionnelles et organisationnelles, plutôt que dans une logique de qualification médicale ou réglementaire.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+    <t>Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -273,7 +273,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+    <t>Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
   </si>
   <si>
     <t>SavoirFaire.dateReconnaissance</t>
@@ -282,7 +282,7 @@
     <t>CompetenceMetier.dateAbandon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+    <t>Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
@@ -291,7 +291,7 @@
     <t>CompetenceMetier.competenceMetier</t>
   </si>
   <si>
-    <t xml:space="preserve"> Compétence métier acquise par le professionnel</t>
+    <t>Compétence métier acquise par le professionnel</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceMetier-vs</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire?vs</t>
   </si>
   <si>
     <t>SavoirFaire.typeSavoirFaire</t>
@@ -631,7 +631,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,6 +286,19 @@
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>CompetenceMetier.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.exerciceProfessionnel</t>
   </si>
   <si>
     <t>CompetenceMetier.competenceMetier</t>
@@ -597,7 +610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -606,8 +619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.5" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -616,7 +629,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1164,7 +1177,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1179,13 +1192,13 @@
         <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1212,11 +1225,13 @@
         <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>70</v>
@@ -1234,10 +1249,10 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1246,6 +1261,104 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>La compétence métier désigne un type de savoir-faire opérationnel, transversal ou spécifique, acquis et exercé à titre non exclusif dans le cadre d’une activité professionnelle reconnue. Elle reflète une expertise fonctionnelle ou technique mobilisée dans l’exercice quotidien du professionnel de santé.Contrairement aux spécialités ordinales ou compétences de médecines, la compétence métier n’est pas nécessairement encadrée par un diplôme ou une qualification ordinale, mais elle peut être attestée par l’expérience, des formations spécifiques, ou une reconnaissance institutionnelle (ex. : missions ANS, ARS, établissements de santé, etc.).Dans le cadre du modèle, la classe CompétenceMetier est représentée comme une spécialisation de la classe SavoirFaire, i-e un TypeDeSavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe. Elle se distingue des autres types de savoir-faire par son ancrage dans les pratiques professionnelles et organisationnelles, plutôt que dans une logique de qualification médicale ou réglementaire.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -238,9 +241,6 @@
 </t>
   </si>
   <si>
-    <t>La compétence métier désigne un type de savoir-faire opérationnel, transversal ou spécifique, acquis et exercé à titre non exclusif dans le cadre d’une activité professionnelle reconnue. Elle reflète une expertise fonctionnelle ou technique mobilisée dans l’exercice quotidien du professionnel de santé.Contrairement aux spécialités ordinales ou compétences de médecines, la compétence métier n’est pas nécessairement encadrée par un diplôme ou une qualification ordinale, mais elle peut être attestée par l’expérience, des formations spécifiques, ou une reconnaissance institutionnelle (ex. : missions ANS, ARS, établissements de santé, etc.).Dans le cadre du modèle, la classe CompétenceMetier est représentée comme une spécialisation de la classe SavoirFaire, i-e un TypeDeSavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe. Elle se distingue des autres types de savoir-faire par son ancrage dans les pratiques professionnelles et organisationnelles, plutôt que dans une logique de qualification médicale ou réglementaire.</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -307,7 +307,7 @@
     <t>Compétence métier acquise par le professionnel</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceMetier-vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R01-EnsembleSavoirFaire-CISIS/FHIR/TRE-R01-EnsembleSavoirFaire-CISIS?vs</t>
   </si>
 </sst>
 </file>
@@ -541,39 +541,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -581,26 +583,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +646,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.68359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="90.5625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -658,112 +660,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -775,95 +777,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -875,23 +877,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -905,26 +907,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -934,34 +936,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -973,23 +975,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>84</v>
@@ -1003,65 +1005,65 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1073,23 +1075,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>84</v>
@@ -1103,65 +1105,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1173,7 +1175,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1183,13 +1185,13 @@
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>91</v>
@@ -1203,50 +1205,50 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>93</v>
@@ -1258,10 +1260,10 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1273,23 +1275,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1303,26 +1305,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1332,34 +1334,34 @@
         <v>96</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CompetenceMetier</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CompetenceMetier</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -291,7 +291,7 @@
     <t>CompetenceMetier.exerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
